--- a/VBA.xlsx
+++ b/VBA.xlsx
@@ -8,25 +8,57 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuliu102\OneDrive - Advanced Micro Devices Inc\Unity_coursera\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0B968C-01E7-4026-9330-7987EE7ECEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB476E10-A9B6-4CFB-A835-A5501F96A170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +66,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,12 +394,184 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" t="e" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">Savings(3000,1,2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Arial"&amp;10&amp;K0000FF[AMD Official Use Only]&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721501DD-CCA9-4C2E-83D5-A45CC334A6D9}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="C4:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
